--- a/orange_green_purple/practice_orange_green_purple.xlsx
+++ b/orange_green_purple/practice_orange_green_purple.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rochellekaper/Desktop/Both_Tasks/orange_green_purple/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E829F71-00A1-824B-8B1A-39B258D2F09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965A5118-67EA-6B4A-AFF2-63D70F301E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10760" yWindow="740" windowWidth="17340" windowHeight="17260" xr2:uid="{2F3BAC22-4B45-2F40-BA28-0DE61A774390}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{2F3BAC22-4B45-2F40-BA28-0DE61A774390}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,9 +149,6 @@
     <t>['purple', 'green', 'darkorange', 'darkorange', 'darkorange', 'green', 'purple', 'green', 'purple']</t>
   </si>
   <si>
-    <t>['purple', darkorange', 'darkorange', 'green', 'darkorange', 'purple', 'darkorange', 'darkorange', 'darkorange']</t>
-  </si>
-  <si>
     <t>['darkorange', 'darkorange', 'darkorange', 'darkorange', 'darkorange', 'darkorange', 'green', 'purple', 'green']</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>['darkorange', 'purple', 'darkorange', 'purple', 'purple', 'darkorange', 'darkorange', 'darkorange', 'darkorange']</t>
+  </si>
+  <si>
+    <t>['purple', 'darkorange', 'darkorange', 'green', 'darkorange', 'purple', 'darkorange', 'darkorange', 'darkorange']</t>
   </si>
 </sst>
 </file>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF52848-176E-E243-8115-37CFF257DD4D}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -612,7 +612,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
@@ -647,13 +647,13 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>15</v>
@@ -677,7 +677,7 @@
         <v>17</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>24</v>
@@ -688,13 +688,13 @@
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>15</v>
@@ -729,13 +729,13 @@
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>30</v>
@@ -770,13 +770,13 @@
         <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>30</v>
@@ -811,13 +811,13 @@
         <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>30</v>
